--- a/Upload Data/Mock Exam/Test 3/Test 3 - Part 3/test3-part3.xlsx
+++ b/Upload Data/Mock Exam/Test 3/Test 3 - Part 3/test3-part3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Mock Exam\Test 1\Test 1 - Part 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EA1FFE-0272-4973-938F-BF7343E5DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,466 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+  <si>
+    <t>Cau hoi</t>
+  </si>
+  <si>
+    <t>Đáp án A</t>
+  </si>
+  <si>
+    <t>Đáp án B</t>
+  </si>
+  <si>
+    <t>Đáp án C</t>
+  </si>
+  <si>
+    <t>Đáp án D</t>
+  </si>
+  <si>
+    <t>Đáp án</t>
+  </si>
+  <si>
+    <t>giai thich</t>
+  </si>
+  <si>
+    <t>What position is the man applying for?</t>
+  </si>
+  <si>
+    <t>(A) Lecturer</t>
+  </si>
+  <si>
+    <t>(B) Editor</t>
+  </si>
+  <si>
+    <t>(C) Journalist</t>
+  </si>
+  <si>
+    <t>(D) Superintendent</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
+  </si>
+  <si>
+    <t>What makes the man qualified for the position?</t>
+  </si>
+  <si>
+    <t>(A) His academic background</t>
+  </si>
+  <si>
+    <t>(B) His previous work experience</t>
+  </si>
+  <si>
+    <t>(C) His public popularity</t>
+  </si>
+  <si>
+    <t>(D) His eloquence</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>What extra benefit does the woman mention?</t>
+  </si>
+  <si>
+    <t>(A) Health insurance</t>
+  </si>
+  <si>
+    <t>(B) Flexible hours</t>
+  </si>
+  <si>
+    <t>(C) A lot of free time</t>
+  </si>
+  <si>
+    <t>(D) Regular incentives</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>What are the speakers discussing?</t>
+  </si>
+  <si>
+    <t>(A) Orders for office supplies</t>
+  </si>
+  <si>
+    <t>(B) Equipment for a conference</t>
+  </si>
+  <si>
+    <t>(C) The budget reports</t>
+  </si>
+  <si>
+    <t>(D) Their colleague</t>
+  </si>
+  <si>
+    <t>Why does the man mention when the supply company closes?</t>
+  </si>
+  <si>
+    <t>(A) To inform her of the business hours</t>
+  </si>
+  <si>
+    <t>(B) To let her know she can’t order anything</t>
+  </si>
+  <si>
+    <t>(C) To explain that the second order would be late</t>
+  </si>
+  <si>
+    <t>(D) To imply that new equipment can’t be ordered</t>
+  </si>
+  <si>
+    <t>What does the woman offer to do?</t>
+  </si>
+  <si>
+    <t>(A) Pay for the new order</t>
+  </si>
+  <si>
+    <t>(B) Order the supplies herself</t>
+  </si>
+  <si>
+    <t>(C) Cancel a meeting</t>
+  </si>
+  <si>
+    <t>(D) Speak to their colleague</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>What are the speakers mainly discussing?</t>
+  </si>
+  <si>
+    <t>(A) A training seminar</t>
+  </si>
+  <si>
+    <t>(B) The installation of a television</t>
+  </si>
+  <si>
+    <t>(C) The date of a presentation</t>
+  </si>
+  <si>
+    <t>(D) A software upgrade</t>
+  </si>
+  <si>
+    <t>What is the problem?</t>
+  </si>
+  <si>
+    <t>(A) The necessary tools are unavailable.</t>
+  </si>
+  <si>
+    <t>(B) The office is closed.</t>
+  </si>
+  <si>
+    <t>(C) The wall is too weak.</t>
+  </si>
+  <si>
+    <t>(D) The phone number was wrong.</t>
+  </si>
+  <si>
+    <t>What most likely will the man do first tomorrow?</t>
+  </si>
+  <si>
+    <t>(A) Order a replacement part</t>
+  </si>
+  <si>
+    <t>(B) Consult an instruction manual</t>
+  </si>
+  <si>
+    <t>(C) Contact the woman</t>
+  </si>
+  <si>
+    <t>(D) Fill out a work order</t>
+  </si>
+  <si>
+    <t>Who most likely is the man?</t>
+  </si>
+  <si>
+    <t>(A) A shop owner</t>
+  </si>
+  <si>
+    <t>(B) A construction worker</t>
+  </si>
+  <si>
+    <t>(C) A local resident</t>
+  </si>
+  <si>
+    <t>(D) A market researcher</t>
+  </si>
+  <si>
+    <t>What does the woman mention about the mall?</t>
+  </si>
+  <si>
+    <t>(A) It was recently renovated.</t>
+  </si>
+  <si>
+    <t>(B) It has sufficient parking space.</t>
+  </si>
+  <si>
+    <t>(C) It is attracting many tourists.</t>
+  </si>
+  <si>
+    <t>(D) It is located outside of town.</t>
+  </si>
+  <si>
+    <t>Why does the woman usually visit the mall?</t>
+  </si>
+  <si>
+    <t>(A) To purchase groceries</t>
+  </si>
+  <si>
+    <t>(B) To meet with her clients</t>
+  </si>
+  <si>
+    <t>(C) To buy clothing</t>
+  </si>
+  <si>
+    <t>(D) To deliver products</t>
+  </si>
+  <si>
+    <t>What is the man concerned about?</t>
+  </si>
+  <si>
+    <t>(A) Getting his camera fixed</t>
+  </si>
+  <si>
+    <t>(B) Receiving sick leave from work</t>
+  </si>
+  <si>
+    <t>(C) Preparing for a party</t>
+  </si>
+  <si>
+    <t>(D) Introducing a client</t>
+  </si>
+  <si>
+    <t>According to the man, why does Greg like his new job?</t>
+  </si>
+  <si>
+    <t>(A) It offers better vacation time.</t>
+  </si>
+  <si>
+    <t>(B) It pays a higher salary.</t>
+  </si>
+  <si>
+    <t>(C) It matches his abilities.</t>
+  </si>
+  <si>
+    <t>(D) It provides health benefits.</t>
+  </si>
+  <si>
+    <t>What most likely will the woman do next?</t>
+  </si>
+  <si>
+    <t>(A) Take a group photo</t>
+  </si>
+  <si>
+    <t>(B) Attend a Christmas party</t>
+  </si>
+  <si>
+    <t>(C) Contact Greg</t>
+  </si>
+  <si>
+    <t>(D) Send an e-mail attachment</t>
+  </si>
+  <si>
+    <t>(A) Finishing a project on time</t>
+  </si>
+  <si>
+    <t>(B) Paying for his new mobile phone</t>
+  </si>
+  <si>
+    <t>(C) Repairing a piece of equipment</t>
+  </si>
+  <si>
+    <t>(D) Learning a new skill</t>
+  </si>
+  <si>
+    <t>Where do the speakers work?</t>
+  </si>
+  <si>
+    <t>(A) At a repair shop</t>
+  </si>
+  <si>
+    <t>(B) At an electronics store</t>
+  </si>
+  <si>
+    <t>(C) At a marketing firm</t>
+  </si>
+  <si>
+    <t>(D) At a design company</t>
+  </si>
+  <si>
+    <t>(A) Provide assistance</t>
+  </si>
+  <si>
+    <t>(B) Pay in cash</t>
+  </si>
+  <si>
+    <t>(C) Fill in for the man</t>
+  </si>
+  <si>
+    <t>(D) E-mail a user manual</t>
+  </si>
+  <si>
+    <t>(A) The plane tickets were not booked.</t>
+  </si>
+  <si>
+    <t>(B) A meeting had to be rescheduled.</t>
+  </si>
+  <si>
+    <t>(C) The meeting was a success.</t>
+  </si>
+  <si>
+    <t>(D) A deadline has been changed.</t>
+  </si>
+  <si>
+    <t>Which part of the business trip will be postponed?</t>
+  </si>
+  <si>
+    <t>(A) The meeting in New York</t>
+  </si>
+  <si>
+    <t>(B) The meeting in Wisconsin</t>
+  </si>
+  <si>
+    <t>(C) The meeting in Washington</t>
+  </si>
+  <si>
+    <t>(D) The meeting in Westboro</t>
+  </si>
+  <si>
+    <t>What does the man mean when he says “That’s not a bad idea”?</t>
+  </si>
+  <si>
+    <t>(A) He thinks it is a bad idea.</t>
+  </si>
+  <si>
+    <t>(B) He agrees with the proposed solution.</t>
+  </si>
+  <si>
+    <t>(C) He wants to hear other ideas.</t>
+  </si>
+  <si>
+    <t>(D) He disagrees with the solution.</t>
+  </si>
+  <si>
+    <t>(A) An interior renovation</t>
+  </si>
+  <si>
+    <t>(B) A product launch</t>
+  </si>
+  <si>
+    <t>(C) A luncheon reservation</t>
+  </si>
+  <si>
+    <t>(D) A budget proposal</t>
+  </si>
+  <si>
+    <t>What does the man say about the dining room?</t>
+  </si>
+  <si>
+    <t>(A) It needs more lighting.</t>
+  </si>
+  <si>
+    <t>(B) It is quite cold.</t>
+  </si>
+  <si>
+    <t>(C) It is spacious.</t>
+  </si>
+  <si>
+    <t>(D) It is too loud.</t>
+  </si>
+  <si>
+    <t>What does the man suggest the woman do?</t>
+  </si>
+  <si>
+    <t>(A) Repaint the walls a brighter color</t>
+  </si>
+  <si>
+    <t>(B) Compensate guests who have reservations</t>
+  </si>
+  <si>
+    <t>(C) Draft a budget proposal</t>
+  </si>
+  <si>
+    <t>(D) Open a bank account</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>1.mp3</t>
+  </si>
+  <si>
+    <t>2.mp3</t>
+  </si>
+  <si>
+    <t>3.mp3</t>
+  </si>
+  <si>
+    <t>4.mp3</t>
+  </si>
+  <si>
+    <t>5.mp3</t>
+  </si>
+  <si>
+    <t>6.mp3</t>
+  </si>
+  <si>
+    <t>7.mp3</t>
+  </si>
+  <si>
+    <t>8.mp3</t>
+  </si>
+  <si>
+    <t>9.mp3</t>
+  </si>
+  <si>
+    <t>10.mp3</t>
+  </si>
+  <si>
+    <t>11.mp3</t>
+  </si>
+  <si>
+    <t>12.mp3</t>
+  </si>
+  <si>
+    <t>13.mp3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +505,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +868,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>